--- a/medicine/Hématologie/Sang_de_phénotype_rare/Sang_de_phénotype_rare.xlsx
+++ b/medicine/Hématologie/Sang_de_phénotype_rare/Sang_de_phénotype_rare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sang_de_ph%C3%A9notype_rare</t>
+          <t>Sang_de_phénotype_rare</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un sang de phénotype rare, ou "sang rare", est un groupe sanguin qui n'est présent que chez quatre individus sur mille[1] dans une zone géographique donnée[2]. Sur les 390 groupes sanguins décrits aujourd'hui, 250 répondent à cette définition de sang rare[3].
-Le don de sang rare est un enjeu de santé publique, car les personnes présentant un sang rare doivent être transfusées avec un sang compatible, qui peut faire défaut dans les stocks puisque peu de gens, et donc de donneurs, en sont porteurs. L'enjeu est particulièrement vif avec la drépanocytose[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un sang de phénotype rare, ou "sang rare", est un groupe sanguin qui n'est présent que chez quatre individus sur mille dans une zone géographique donnée. Sur les 390 groupes sanguins décrits aujourd'hui, 250 répondent à cette définition de sang rare.
+Le don de sang rare est un enjeu de santé publique, car les personnes présentant un sang rare doivent être transfusées avec un sang compatible, qui peut faire défaut dans les stocks puisque peu de gens, et donc de donneurs, en sont porteurs. L'enjeu est particulièrement vif avec la drépanocytose.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sang_de_ph%C3%A9notype_rare</t>
+          <t>Sang_de_phénotype_rare</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Notion de sang rare</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un groupe sanguin est défini par l'absence ou la présence d'un ou plusieurs antigènes sur les globules rouges dans le sang d'un groupe d'individus.
-Il existe différents systèmes pour les catégoriser : les systèmes sont des modèles qui tentent d'englober au mieux la diversité des groupes sanguins existants. Le système ABO et le système Rh sont particulièrement utilisés en Europe, mais ils ne permettent pas de prendre en compte la diversité des groupes sanguins existant dans le monde. Or, des porteurs de ces groupes sanguins qui ne sont pas pris en compte par ces modèles existent en Europe, et sont d'autant plus nombreux du fait de l'immigration[5].
+Il existe différents systèmes pour les catégoriser : les systèmes sont des modèles qui tentent d'englober au mieux la diversité des groupes sanguins existants. Le système ABO et le système Rh sont particulièrement utilisés en Europe, mais ils ne permettent pas de prendre en compte la diversité des groupes sanguins existant dans le monde. Or, des porteurs de ces groupes sanguins qui ne sont pas pris en compte par ces modèles existent en Europe, et sont d'autant plus nombreux du fait de l'immigration.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sang_de_ph%C3%A9notype_rare</t>
+          <t>Sang_de_phénotype_rare</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
